--- a/public/Comisiones con Horarios.xlsx
+++ b/public/Comisiones con Horarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LikeChuck\Desktop\LC-PMI\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA731BC-7C4F-44C0-ADDA-706105B67B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCBE0E5-EE0C-41F7-8A08-89767A488901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="314">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -961,6 +961,15 @@
   </si>
   <si>
     <t>Aaron y Luján</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paez </t>
+  </si>
+  <si>
+    <t>Jazmin Gabriela</t>
+  </si>
+  <si>
+    <t>paezjazmin04@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1022,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1036,11 +1045,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1057,6 +1077,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4808,6 +4831,41 @@
         <v>24</v>
       </c>
     </row>
+    <row r="99" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>45891.537175925929</v>
+      </c>
+      <c r="B99" t="s">
+        <v>311</v>
+      </c>
+      <c r="C99" t="s">
+        <v>312</v>
+      </c>
+      <c r="D99">
+        <v>45850149</v>
+      </c>
+      <c r="E99" t="s">
+        <v>313</v>
+      </c>
+      <c r="F99">
+        <v>8354</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K77" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/Comisiones con Horarios.xlsx
+++ b/public/Comisiones con Horarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LikeChuck\Desktop\LC-PMI\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olake\OneDrive\Escritorio\LC-PMI\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCBE0E5-EE0C-41F7-8A08-89767A488901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9061D836-9CF6-4634-8580-C0E79061B0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="316">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -970,6 +970,12 @@
   </si>
   <si>
     <t>paezjazmin04@gmail.com</t>
+  </si>
+  <si>
+    <t>Magdalenamartinez.lv@gmail.com</t>
+  </si>
+  <si>
+    <t>Magdalena</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1080,6 +1086,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1384,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4866,6 +4875,41 @@
         <v>24</v>
       </c>
     </row>
+    <row r="100" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>45894.759398148148</v>
+      </c>
+      <c r="B100" t="s">
+        <v>268</v>
+      </c>
+      <c r="C100" t="s">
+        <v>315</v>
+      </c>
+      <c r="D100">
+        <v>22712562</v>
+      </c>
+      <c r="E100" t="s">
+        <v>314</v>
+      </c>
+      <c r="F100">
+        <v>8437</v>
+      </c>
+      <c r="G100" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K77" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
